--- a/natmiOut/OldD4/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Kit</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.811526803557</v>
+        <v>159.6876246666667</v>
       </c>
       <c r="H2">
-        <v>148.811526803557</v>
+        <v>479.062874</v>
       </c>
       <c r="I2">
-        <v>0.6847558322990801</v>
+        <v>0.6760655881520331</v>
       </c>
       <c r="J2">
-        <v>0.6847558322990801</v>
+        <v>0.7341249043125203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.0513806911947</v>
+        <v>19.36823166666667</v>
       </c>
       <c r="N2">
-        <v>12.0513806911947</v>
+        <v>58.10469500000001</v>
       </c>
       <c r="O2">
-        <v>0.8933147362978933</v>
+        <v>0.9049300397257884</v>
       </c>
       <c r="P2">
-        <v>0.8933147362978933</v>
+        <v>0.912112002070845</v>
       </c>
       <c r="Q2">
-        <v>1793.384360747589</v>
+        <v>3092.866908843715</v>
       </c>
       <c r="R2">
-        <v>1793.384360747589</v>
+        <v>27835.80217959343</v>
       </c>
       <c r="S2">
-        <v>0.6117024757586972</v>
+        <v>0.6117920595436579</v>
       </c>
       <c r="T2">
-        <v>0.6117024757586972</v>
+        <v>0.6696041362425604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.811526803557</v>
+        <v>159.6876246666667</v>
       </c>
       <c r="H3">
-        <v>148.811526803557</v>
+        <v>479.062874</v>
       </c>
       <c r="I3">
-        <v>0.6847558322990801</v>
+        <v>0.6760655881520331</v>
       </c>
       <c r="J3">
-        <v>0.6847558322990801</v>
+        <v>0.7341249043125203</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.318224870647199</v>
+        <v>0.007200000000000001</v>
       </c>
       <c r="N3">
-        <v>0.318224870647199</v>
+        <v>0.0216</v>
       </c>
       <c r="O3">
-        <v>0.02358858073526283</v>
+        <v>0.0003364011954296813</v>
       </c>
       <c r="P3">
-        <v>0.02358858073526283</v>
+        <v>0.0003390710379725812</v>
       </c>
       <c r="Q3">
-        <v>47.35552886787411</v>
+        <v>1.1497508976</v>
       </c>
       <c r="R3">
-        <v>47.35552886787411</v>
+        <v>10.3477580784</v>
       </c>
       <c r="S3">
-        <v>0.01615241823412895</v>
+        <v>0.0002274292720432146</v>
       </c>
       <c r="T3">
-        <v>0.01615241823412895</v>
+        <v>0.0002489204933067681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.811526803557</v>
+        <v>159.6876246666667</v>
       </c>
       <c r="H4">
-        <v>148.811526803557</v>
+        <v>479.062874</v>
       </c>
       <c r="I4">
-        <v>0.6847558322990801</v>
+        <v>0.6760655881520331</v>
       </c>
       <c r="J4">
-        <v>0.6847558322990801</v>
+        <v>0.7341249043125203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.615632378333698</v>
+        <v>0.8591763333333334</v>
       </c>
       <c r="N4">
-        <v>0.615632378333698</v>
+        <v>2.577529</v>
       </c>
       <c r="O4">
-        <v>0.04563406383049819</v>
+        <v>0.04014277022475329</v>
       </c>
       <c r="P4">
-        <v>0.04563406383049819</v>
+        <v>0.04046136265900135</v>
       </c>
       <c r="Q4">
-        <v>91.61319416954264</v>
+        <v>137.1998278398162</v>
       </c>
       <c r="R4">
-        <v>91.61319416954264</v>
+        <v>1234.798450558346</v>
       </c>
       <c r="S4">
-        <v>0.03124819135944213</v>
+        <v>0.02713914556204976</v>
       </c>
       <c r="T4">
-        <v>0.03124819135944213</v>
+        <v>0.02970369399039355</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>148.811526803557</v>
+        <v>159.6876246666667</v>
       </c>
       <c r="H5">
-        <v>148.811526803557</v>
+        <v>479.062874</v>
       </c>
       <c r="I5">
-        <v>0.6847558322990801</v>
+        <v>0.6760655881520331</v>
       </c>
       <c r="J5">
-        <v>0.6847558322990801</v>
+        <v>0.7341249043125203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.505394422096248</v>
+        <v>0.662826</v>
       </c>
       <c r="N5">
-        <v>0.505394422096248</v>
+        <v>1.988478</v>
       </c>
       <c r="O5">
-        <v>0.03746261913634556</v>
+        <v>0.03096881371692694</v>
       </c>
       <c r="P5">
-        <v>0.03746261913634556</v>
+        <v>0.03121459719655752</v>
       </c>
       <c r="Q5">
-        <v>75.208515590144</v>
+        <v>105.845109507308</v>
       </c>
       <c r="R5">
-        <v>75.208515590144</v>
+        <v>952.6059855657721</v>
       </c>
       <c r="S5">
-        <v>0.02565274694681175</v>
+        <v>0.02093694925990496</v>
       </c>
       <c r="T5">
-        <v>0.02565274694681175</v>
+        <v>0.02291541318007665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.2039266587885</v>
+        <v>159.6876246666667</v>
       </c>
       <c r="H6">
-        <v>14.2039266587885</v>
+        <v>479.062874</v>
       </c>
       <c r="I6">
-        <v>0.06535932954974109</v>
+        <v>0.6760655881520331</v>
       </c>
       <c r="J6">
-        <v>0.06535932954974109</v>
+        <v>0.7341249043125203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.0513806911947</v>
+        <v>0.5055815</v>
       </c>
       <c r="N6">
-        <v>12.0513806911947</v>
+        <v>1.011163</v>
       </c>
       <c r="O6">
-        <v>0.8933147362978933</v>
+        <v>0.02362197513710159</v>
       </c>
       <c r="P6">
-        <v>0.8933147362978933</v>
+        <v>0.01587296703562357</v>
       </c>
       <c r="Q6">
-        <v>171.1769274748694</v>
+        <v>80.73510881041034</v>
       </c>
       <c r="R6">
-        <v>171.1769274748694</v>
+        <v>484.410652862462</v>
       </c>
       <c r="S6">
-        <v>0.05838645224133407</v>
+        <v>0.01597000451437729</v>
       </c>
       <c r="T6">
-        <v>0.05838645224133407</v>
+        <v>0.01165274040618294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.2039266587885</v>
+        <v>16.62832766666667</v>
       </c>
       <c r="H7">
-        <v>14.2039266587885</v>
+        <v>49.884983</v>
       </c>
       <c r="I7">
-        <v>0.06535932954974109</v>
+        <v>0.07039894385940075</v>
       </c>
       <c r="J7">
-        <v>0.06535932954974109</v>
+        <v>0.07644468056087915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.318224870647199</v>
+        <v>19.36823166666667</v>
       </c>
       <c r="N7">
-        <v>0.318224870647199</v>
+        <v>58.10469500000001</v>
       </c>
       <c r="O7">
-        <v>0.02358858073526283</v>
+        <v>0.9049300397257884</v>
       </c>
       <c r="P7">
-        <v>0.02358858073526283</v>
+        <v>0.912112002070845</v>
       </c>
       <c r="Q7">
-        <v>4.520042723675272</v>
+        <v>322.0613024772429</v>
       </c>
       <c r="R7">
-        <v>4.520042723675272</v>
+        <v>2898.551722295185</v>
       </c>
       <c r="S7">
-        <v>0.001541733821886718</v>
+        <v>0.06370611906334107</v>
       </c>
       <c r="T7">
-        <v>0.001541733821886718</v>
+        <v>0.06972611063404968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.2039266587885</v>
+        <v>16.62832766666667</v>
       </c>
       <c r="H8">
-        <v>14.2039266587885</v>
+        <v>49.884983</v>
       </c>
       <c r="I8">
-        <v>0.06535932954974109</v>
+        <v>0.07039894385940075</v>
       </c>
       <c r="J8">
-        <v>0.06535932954974109</v>
+        <v>0.07644468056087915</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.615632378333698</v>
+        <v>0.007200000000000001</v>
       </c>
       <c r="N8">
-        <v>0.615632378333698</v>
+        <v>0.0216</v>
       </c>
       <c r="O8">
-        <v>0.04563406383049819</v>
+        <v>0.0003364011954296813</v>
       </c>
       <c r="P8">
-        <v>0.04563406383049819</v>
+        <v>0.0003390710379725812</v>
       </c>
       <c r="Q8">
-        <v>8.74439715062738</v>
+        <v>0.1197239592</v>
       </c>
       <c r="R8">
-        <v>8.74439715062738</v>
+        <v>1.0775156328</v>
       </c>
       <c r="S8">
-        <v>0.002982611816591451</v>
+        <v>2.368228887128944E-05</v>
       </c>
       <c r="T8">
-        <v>0.002982611816591451</v>
+        <v>2.59201771852597E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.2039266587885</v>
+        <v>16.62832766666667</v>
       </c>
       <c r="H9">
-        <v>14.2039266587885</v>
+        <v>49.884983</v>
       </c>
       <c r="I9">
-        <v>0.06535932954974109</v>
+        <v>0.07039894385940075</v>
       </c>
       <c r="J9">
-        <v>0.06535932954974109</v>
+        <v>0.07644468056087915</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.505394422096248</v>
+        <v>0.8591763333333334</v>
       </c>
       <c r="N9">
-        <v>0.505394422096248</v>
+        <v>2.577529</v>
       </c>
       <c r="O9">
-        <v>0.03746261913634556</v>
+        <v>0.04014277022475329</v>
       </c>
       <c r="P9">
-        <v>0.03746261913634556</v>
+        <v>0.04046136265900135</v>
       </c>
       <c r="Q9">
-        <v>7.178585305215904</v>
+        <v>14.28666559411189</v>
       </c>
       <c r="R9">
-        <v>7.178585305215904</v>
+        <v>128.579990347007</v>
       </c>
       <c r="S9">
-        <v>0.002448531669928847</v>
+        <v>0.002826008627413231</v>
       </c>
       <c r="T9">
-        <v>0.002448531669928847</v>
+        <v>0.003093055943525242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.08660255243507</v>
+        <v>16.62832766666667</v>
       </c>
       <c r="H10">
-        <v>2.08660255243507</v>
+        <v>49.884983</v>
       </c>
       <c r="I10">
-        <v>0.009601495920112481</v>
+        <v>0.07039894385940075</v>
       </c>
       <c r="J10">
-        <v>0.009601495920112481</v>
+        <v>0.07644468056087915</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.0513806911947</v>
+        <v>0.662826</v>
       </c>
       <c r="N10">
-        <v>12.0513806911947</v>
+        <v>1.988478</v>
       </c>
       <c r="O10">
-        <v>0.8933147362978933</v>
+        <v>0.03096881371692694</v>
       </c>
       <c r="P10">
-        <v>0.8933147362978933</v>
+        <v>0.03121459719655752</v>
       </c>
       <c r="Q10">
-        <v>25.14644171061358</v>
+        <v>11.021687913986</v>
       </c>
       <c r="R10">
-        <v>25.14644171061358</v>
+        <v>99.19519122587401</v>
       </c>
       <c r="S10">
-        <v>0.008577157795940579</v>
+        <v>0.002180171778250179</v>
       </c>
       <c r="T10">
-        <v>0.008577157795940579</v>
+        <v>0.002386189911527353</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.08660255243507</v>
+        <v>16.62832766666667</v>
       </c>
       <c r="H11">
-        <v>2.08660255243507</v>
+        <v>49.884983</v>
       </c>
       <c r="I11">
-        <v>0.009601495920112481</v>
+        <v>0.07039894385940075</v>
       </c>
       <c r="J11">
-        <v>0.009601495920112481</v>
+        <v>0.07644468056087915</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.318224870647199</v>
+        <v>0.5055815</v>
       </c>
       <c r="N11">
-        <v>0.318224870647199</v>
+        <v>1.011163</v>
       </c>
       <c r="O11">
-        <v>0.02358858073526283</v>
+        <v>0.02362197513710159</v>
       </c>
       <c r="P11">
-        <v>0.02358858073526283</v>
+        <v>0.01587296703562357</v>
       </c>
       <c r="Q11">
-        <v>0.6640088273407655</v>
+        <v>8.406974844204834</v>
       </c>
       <c r="R11">
-        <v>0.6640088273407655</v>
+        <v>50.441849065229</v>
       </c>
       <c r="S11">
-        <v>0.00022648566169087</v>
+        <v>0.001662962101524975</v>
       </c>
       <c r="T11">
-        <v>0.00022648566169087</v>
+        <v>0.001213403894591609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.08660255243507</v>
+        <v>2.645999666666667</v>
       </c>
       <c r="H12">
-        <v>2.08660255243507</v>
+        <v>7.937999</v>
       </c>
       <c r="I12">
-        <v>0.009601495920112481</v>
+        <v>0.01120230402718548</v>
       </c>
       <c r="J12">
-        <v>0.009601495920112481</v>
+        <v>0.0121643380703884</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.615632378333698</v>
+        <v>19.36823166666667</v>
       </c>
       <c r="N12">
-        <v>0.615632378333698</v>
+        <v>58.10469500000001</v>
       </c>
       <c r="O12">
-        <v>0.04563406383049819</v>
+        <v>0.9049300397257884</v>
       </c>
       <c r="P12">
-        <v>0.04563406383049819</v>
+        <v>0.912112002070845</v>
       </c>
       <c r="Q12">
-        <v>1.284580091992767</v>
+        <v>51.24833453392279</v>
       </c>
       <c r="R12">
-        <v>1.284580091992767</v>
+        <v>461.2350108053051</v>
       </c>
       <c r="S12">
-        <v>0.0004381552776866809</v>
+        <v>0.01013730142834132</v>
       </c>
       <c r="T12">
-        <v>0.0004381552776866809</v>
+        <v>0.01109523875124856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.08660255243507</v>
+        <v>2.645999666666667</v>
       </c>
       <c r="H13">
-        <v>2.08660255243507</v>
+        <v>7.937999</v>
       </c>
       <c r="I13">
-        <v>0.009601495920112481</v>
+        <v>0.01120230402718548</v>
       </c>
       <c r="J13">
-        <v>0.009601495920112481</v>
+        <v>0.0121643380703884</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.505394422096248</v>
+        <v>0.007200000000000001</v>
       </c>
       <c r="N13">
-        <v>0.505394422096248</v>
+        <v>0.0216</v>
       </c>
       <c r="O13">
-        <v>0.03746261913634556</v>
+        <v>0.0003364011954296813</v>
       </c>
       <c r="P13">
-        <v>0.03746261913634556</v>
+        <v>0.0003390710379725812</v>
       </c>
       <c r="Q13">
-        <v>1.054557291132478</v>
+        <v>0.0190511976</v>
       </c>
       <c r="R13">
-        <v>1.054557291132478</v>
+        <v>0.1714607784</v>
       </c>
       <c r="S13">
-        <v>0.0003596971847943497</v>
+        <v>3.76846846631193E-06</v>
       </c>
       <c r="T13">
-        <v>0.0003596971847943497</v>
+        <v>4.124574735775981E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.2185125503963</v>
+        <v>2.645999666666667</v>
       </c>
       <c r="H14">
-        <v>52.2185125503963</v>
+        <v>7.937999</v>
       </c>
       <c r="I14">
-        <v>0.2402833422310663</v>
+        <v>0.01120230402718548</v>
       </c>
       <c r="J14">
-        <v>0.2402833422310663</v>
+        <v>0.0121643380703884</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.0513806911947</v>
+        <v>0.8591763333333334</v>
       </c>
       <c r="N14">
-        <v>12.0513806911947</v>
+        <v>2.577529</v>
       </c>
       <c r="O14">
-        <v>0.8933147362978933</v>
+        <v>0.04014277022475329</v>
       </c>
       <c r="P14">
-        <v>0.8933147362978933</v>
+        <v>0.04046136265900135</v>
       </c>
       <c r="Q14">
-        <v>629.305173872754</v>
+        <v>2.273380291607889</v>
       </c>
       <c r="R14">
-        <v>629.305173872754</v>
+        <v>20.460422624471</v>
       </c>
       <c r="S14">
-        <v>0.2146486505019214</v>
+        <v>0.0004496915165511353</v>
       </c>
       <c r="T14">
-        <v>0.2146486505019214</v>
+        <v>0.0004921856941726819</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.2185125503963</v>
+        <v>2.645999666666667</v>
       </c>
       <c r="H15">
-        <v>52.2185125503963</v>
+        <v>7.937999</v>
       </c>
       <c r="I15">
-        <v>0.2402833422310663</v>
+        <v>0.01120230402718548</v>
       </c>
       <c r="J15">
-        <v>0.2402833422310663</v>
+        <v>0.0121643380703884</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.318224870647199</v>
+        <v>0.662826</v>
       </c>
       <c r="N15">
-        <v>0.318224870647199</v>
+        <v>1.988478</v>
       </c>
       <c r="O15">
-        <v>0.02358858073526283</v>
+        <v>0.03096881371692694</v>
       </c>
       <c r="P15">
-        <v>0.02358858073526283</v>
+        <v>0.03121459719655752</v>
       </c>
       <c r="Q15">
-        <v>16.617229401739</v>
+        <v>1.753837375058</v>
       </c>
       <c r="R15">
-        <v>16.617229401739</v>
+        <v>15.784536375522</v>
       </c>
       <c r="S15">
-        <v>0.005667943017556297</v>
+        <v>0.0003469220666182877</v>
       </c>
       <c r="T15">
-        <v>0.005667943017556297</v>
+        <v>0.0003797049130299237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.2185125503963</v>
+        <v>2.645999666666667</v>
       </c>
       <c r="H16">
-        <v>52.2185125503963</v>
+        <v>7.937999</v>
       </c>
       <c r="I16">
-        <v>0.2402833422310663</v>
+        <v>0.01120230402718548</v>
       </c>
       <c r="J16">
-        <v>0.2402833422310663</v>
+        <v>0.0121643380703884</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.615632378333698</v>
+        <v>0.5055815</v>
       </c>
       <c r="N16">
-        <v>0.615632378333698</v>
+        <v>1.011163</v>
       </c>
       <c r="O16">
-        <v>0.04563406383049819</v>
+        <v>0.02362197513710159</v>
       </c>
       <c r="P16">
-        <v>0.04563406383049819</v>
+        <v>0.01587296703562357</v>
       </c>
       <c r="Q16">
-        <v>32.14740707444853</v>
+        <v>1.337768480472834</v>
       </c>
       <c r="R16">
-        <v>32.14740707444853</v>
+        <v>8.026610882837002</v>
       </c>
       <c r="S16">
-        <v>0.01096510537677792</v>
+        <v>0.0002646205472084284</v>
       </c>
       <c r="T16">
-        <v>0.01096510537677792</v>
+        <v>0.0001930841372014559</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.198457666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.595373</v>
+      </c>
+      <c r="I17">
+        <v>0.005073880890780403</v>
+      </c>
+      <c r="J17">
+        <v>0.00550961680155749</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.36823166666667</v>
+      </c>
+      <c r="N17">
+        <v>58.10469500000001</v>
+      </c>
+      <c r="O17">
+        <v>0.9049300397257884</v>
+      </c>
+      <c r="P17">
+        <v>0.912112002070845</v>
+      </c>
+      <c r="Q17">
+        <v>23.21200573069278</v>
+      </c>
+      <c r="R17">
+        <v>208.908051576235</v>
+      </c>
+      <c r="S17">
+        <v>0.004591507236057829</v>
+      </c>
+      <c r="T17">
+        <v>0.005025387611511768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.198457666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.595373</v>
+      </c>
+      <c r="I18">
+        <v>0.005073880890780403</v>
+      </c>
+      <c r="J18">
+        <v>0.00550961680155749</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.007200000000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.0216</v>
+      </c>
+      <c r="O18">
+        <v>0.0003364011954296813</v>
+      </c>
+      <c r="P18">
+        <v>0.0003390710379725812</v>
+      </c>
+      <c r="Q18">
+        <v>0.0086288952</v>
+      </c>
+      <c r="R18">
+        <v>0.0776600568</v>
+      </c>
+      <c r="S18">
+        <v>1.706859597126344E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.868151487735271E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.198457666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.595373</v>
+      </c>
+      <c r="I19">
+        <v>0.005073880890780403</v>
+      </c>
+      <c r="J19">
+        <v>0.00550961680155749</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8591763333333334</v>
+      </c>
+      <c r="N19">
+        <v>2.577529</v>
+      </c>
+      <c r="O19">
+        <v>0.04014277022475329</v>
+      </c>
+      <c r="P19">
+        <v>0.04046136265900135</v>
+      </c>
+      <c r="Q19">
+        <v>1.029686463701889</v>
+      </c>
+      <c r="R19">
+        <v>9.267178173317001</v>
+      </c>
+      <c r="S19">
+        <v>0.0002036796347463643</v>
+      </c>
+      <c r="T19">
+        <v>0.0002229266035199447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.198457666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.595373</v>
+      </c>
+      <c r="I20">
+        <v>0.005073880890780403</v>
+      </c>
+      <c r="J20">
+        <v>0.00550961680155749</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.662826</v>
+      </c>
+      <c r="N20">
+        <v>1.988478</v>
+      </c>
+      <c r="O20">
+        <v>0.03096881371692694</v>
+      </c>
+      <c r="P20">
+        <v>0.03121459719655752</v>
+      </c>
+      <c r="Q20">
+        <v>0.794368901366</v>
+      </c>
+      <c r="R20">
+        <v>7.149320112294</v>
+      </c>
+      <c r="S20">
+        <v>0.0001571320721284536</v>
+      </c>
+      <c r="T20">
+        <v>0.0001719804691680026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.198457666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.595373</v>
+      </c>
+      <c r="I21">
+        <v>0.005073880890780403</v>
+      </c>
+      <c r="J21">
+        <v>0.00550961680155749</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5055815</v>
+      </c>
+      <c r="N21">
+        <v>1.011163</v>
+      </c>
+      <c r="O21">
+        <v>0.02362197513710159</v>
+      </c>
+      <c r="P21">
+        <v>0.01587296703562357</v>
+      </c>
+      <c r="Q21">
+        <v>0.6059180247998334</v>
+      </c>
+      <c r="R21">
+        <v>3.635508148799</v>
+      </c>
+      <c r="S21">
+        <v>0.0001198550882506295</v>
+      </c>
+      <c r="T21">
+        <v>8.745396587003981E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>56.04097</v>
+      </c>
+      <c r="H22">
+        <v>112.08194</v>
+      </c>
+      <c r="I22">
+        <v>0.2372592830706003</v>
+      </c>
+      <c r="J22">
+        <v>0.1717564602546547</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>19.36823166666667</v>
+      </c>
+      <c r="N22">
+        <v>58.10469500000001</v>
+      </c>
+      <c r="O22">
+        <v>0.9049300397257884</v>
+      </c>
+      <c r="P22">
+        <v>0.912112002070845</v>
+      </c>
+      <c r="Q22">
+        <v>1085.414489784717</v>
+      </c>
+      <c r="R22">
+        <v>6512.486938708301</v>
+      </c>
+      <c r="S22">
+        <v>0.2147030524543904</v>
+      </c>
+      <c r="T22">
+        <v>0.1566611288314746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>56.04097</v>
+      </c>
+      <c r="H23">
+        <v>112.08194</v>
+      </c>
+      <c r="I23">
+        <v>0.2372592830706003</v>
+      </c>
+      <c r="J23">
+        <v>0.1717564602546547</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.007200000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.0216</v>
+      </c>
+      <c r="O23">
+        <v>0.0003364011954296813</v>
+      </c>
+      <c r="P23">
+        <v>0.0003390710379725812</v>
+      </c>
+      <c r="Q23">
+        <v>0.4034949840000001</v>
+      </c>
+      <c r="R23">
+        <v>2.420969904</v>
+      </c>
+      <c r="S23">
+        <v>7.98143064517391E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.823764125704215E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>56.04097</v>
+      </c>
+      <c r="H24">
+        <v>112.08194</v>
+      </c>
+      <c r="I24">
+        <v>0.2372592830706003</v>
+      </c>
+      <c r="J24">
+        <v>0.1717564602546547</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8591763333333334</v>
+      </c>
+      <c r="N24">
+        <v>2.577529</v>
+      </c>
+      <c r="O24">
+        <v>0.04014277022475329</v>
+      </c>
+      <c r="P24">
+        <v>0.04046136265900135</v>
+      </c>
+      <c r="Q24">
+        <v>48.14907512104334</v>
+      </c>
+      <c r="R24">
+        <v>288.89445072626</v>
+      </c>
+      <c r="S24">
+        <v>0.009524244883992807</v>
+      </c>
+      <c r="T24">
+        <v>0.006949500427389935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>52.2185125503963</v>
-      </c>
-      <c r="H17">
-        <v>52.2185125503963</v>
-      </c>
-      <c r="I17">
-        <v>0.2402833422310663</v>
-      </c>
-      <c r="J17">
-        <v>0.2402833422310663</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.505394422096248</v>
-      </c>
-      <c r="N17">
-        <v>0.505394422096248</v>
-      </c>
-      <c r="O17">
-        <v>0.03746261913634556</v>
-      </c>
-      <c r="P17">
-        <v>0.03746261913634556</v>
-      </c>
-      <c r="Q17">
-        <v>26.39094497313321</v>
-      </c>
-      <c r="R17">
-        <v>26.39094497313321</v>
-      </c>
-      <c r="S17">
-        <v>0.009001643334810613</v>
-      </c>
-      <c r="T17">
-        <v>0.009001643334810613</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>56.04097</v>
+      </c>
+      <c r="H25">
+        <v>112.08194</v>
+      </c>
+      <c r="I25">
+        <v>0.2372592830706003</v>
+      </c>
+      <c r="J25">
+        <v>0.1717564602546547</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.662826</v>
+      </c>
+      <c r="N25">
+        <v>1.988478</v>
+      </c>
+      <c r="O25">
+        <v>0.03096881371692694</v>
+      </c>
+      <c r="P25">
+        <v>0.03121459719655752</v>
+      </c>
+      <c r="Q25">
+        <v>37.14541198122</v>
+      </c>
+      <c r="R25">
+        <v>222.87247188732</v>
+      </c>
+      <c r="S25">
+        <v>0.007347638540025058</v>
+      </c>
+      <c r="T25">
+        <v>0.005361308722755587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>56.04097</v>
+      </c>
+      <c r="H26">
+        <v>112.08194</v>
+      </c>
+      <c r="I26">
+        <v>0.2372592830706003</v>
+      </c>
+      <c r="J26">
+        <v>0.1717564602546547</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5055815</v>
+      </c>
+      <c r="N26">
+        <v>1.011163</v>
+      </c>
+      <c r="O26">
+        <v>0.02362197513710159</v>
+      </c>
+      <c r="P26">
+        <v>0.01587296703562357</v>
+      </c>
+      <c r="Q26">
+        <v>28.333277674055</v>
+      </c>
+      <c r="R26">
+        <v>113.33311069622</v>
+      </c>
+      <c r="S26">
+        <v>0.005604532885740268</v>
+      </c>
+      <c r="T26">
+        <v>0.002726284631777524</v>
       </c>
     </row>
   </sheetData>
